--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H2">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I2">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J2">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N2">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O2">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P2">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q2">
-        <v>160.0802820112467</v>
+        <v>1125.402155599658</v>
       </c>
       <c r="R2">
-        <v>1440.72253810122</v>
+        <v>10128.61940039693</v>
       </c>
       <c r="S2">
-        <v>0.0273672777089509</v>
+        <v>0.169462026907209</v>
       </c>
       <c r="T2">
-        <v>0.0273672777089509</v>
+        <v>0.169462026907209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H3">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I3">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J3">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>157.825459</v>
       </c>
       <c r="O3">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P3">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q3">
-        <v>1918.365560678252</v>
+        <v>2651.899118324096</v>
       </c>
       <c r="R3">
-        <v>17265.29004610426</v>
+        <v>23867.09206491686</v>
       </c>
       <c r="S3">
-        <v>0.3279632093769083</v>
+        <v>0.3993205428908973</v>
       </c>
       <c r="T3">
-        <v>0.3279632093769083</v>
+        <v>0.3993205428908974</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H4">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I4">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J4">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N4">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O4">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P4">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q4">
-        <v>3.700486928563333</v>
+        <v>6.447360047234333</v>
       </c>
       <c r="R4">
-        <v>33.30438235707</v>
+        <v>58.02624042510899</v>
       </c>
       <c r="S4">
-        <v>0.0006326341518140284</v>
+        <v>0.0009708375769217518</v>
       </c>
       <c r="T4">
-        <v>0.0006326341518140283</v>
+        <v>0.000970837576921752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H5">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I5">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J5">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N5">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O5">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P5">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q5">
-        <v>1690.74392298449</v>
+        <v>2332.517633804794</v>
       </c>
       <c r="R5">
-        <v>15216.69530686041</v>
+        <v>20992.65870424315</v>
       </c>
       <c r="S5">
-        <v>0.2890490814589319</v>
+        <v>0.351228371169016</v>
       </c>
       <c r="T5">
-        <v>0.2890490814589319</v>
+        <v>0.351228371169016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H6">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I6">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J6">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N6">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O6">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P6">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q6">
-        <v>7.124277854466668</v>
+        <v>9.905379392834444</v>
       </c>
       <c r="R6">
-        <v>64.11850069020001</v>
+        <v>89.14841453551</v>
       </c>
       <c r="S6">
-        <v>0.001217964436776918</v>
+        <v>0.00149154296607883</v>
       </c>
       <c r="T6">
-        <v>0.001217964436776918</v>
+        <v>0.001491542966078831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H7">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I7">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J7">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N7">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O7">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P7">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q7">
-        <v>4.842362371275</v>
+        <v>2.841409436389333</v>
       </c>
       <c r="R7">
-        <v>43.581261341475</v>
+        <v>25.572684927504</v>
       </c>
       <c r="S7">
-        <v>0.0008278488400760464</v>
+        <v>0.0004278568331933208</v>
       </c>
       <c r="T7">
-        <v>0.0008278488400760462</v>
+        <v>0.0004278568331933209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H8">
         <v>0.181747</v>
       </c>
       <c r="I8">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J8">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N8">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O8">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P8">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q8">
-        <v>0.2659550701337778</v>
+        <v>1.352547563169112</v>
       </c>
       <c r="R8">
-        <v>2.393595631204</v>
+        <v>12.172928068522</v>
       </c>
       <c r="S8">
-        <v>4.546760020039976E-05</v>
+        <v>0.0002036653745530763</v>
       </c>
       <c r="T8">
-        <v>4.546760020039976E-05</v>
+        <v>0.0002036653745530764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H9">
         <v>0.181747</v>
       </c>
       <c r="I9">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J9">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>157.825459</v>
       </c>
       <c r="O9">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P9">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q9">
         <v>3.187144855208111</v>
@@ -1013,10 +1013,10 @@
         <v>28.684303696873</v>
       </c>
       <c r="S9">
-        <v>0.0005448733426457011</v>
+        <v>0.0004799173562295722</v>
       </c>
       <c r="T9">
-        <v>0.0005448733426457012</v>
+        <v>0.0004799173562295723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H10">
         <v>0.181747</v>
       </c>
       <c r="I10">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J10">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N10">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O10">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P10">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q10">
-        <v>0.006147935574888888</v>
+        <v>0.007748662180333334</v>
       </c>
       <c r="R10">
-        <v>0.05533142017399999</v>
+        <v>0.069737959623</v>
       </c>
       <c r="S10">
-        <v>1.051049249169252E-06</v>
+        <v>1.166786461501708E-06</v>
       </c>
       <c r="T10">
-        <v>1.051049249169252E-06</v>
+        <v>1.166786461501708E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H11">
         <v>0.181747</v>
       </c>
       <c r="I11">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J11">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N11">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O11">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P11">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q11">
-        <v>2.808977551551333</v>
+        <v>2.803301047500334</v>
       </c>
       <c r="R11">
-        <v>25.28079796396199</v>
+        <v>25.229709427503</v>
       </c>
       <c r="S11">
-        <v>0.0004802219721609021</v>
+        <v>0.0004221185068615599</v>
       </c>
       <c r="T11">
-        <v>0.0004802219721609021</v>
+        <v>0.0004221185068615599</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H12">
         <v>0.181747</v>
       </c>
       <c r="I12">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J12">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N12">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O12">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P12">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q12">
-        <v>0.01183617240444445</v>
+        <v>0.01190463044111111</v>
       </c>
       <c r="R12">
-        <v>0.10652555164</v>
+        <v>0.10714167397</v>
       </c>
       <c r="S12">
-        <v>2.023508536677206E-06</v>
+        <v>1.792588359720184E-06</v>
       </c>
       <c r="T12">
-        <v>2.023508536677206E-06</v>
+        <v>1.792588359720184E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H13">
         <v>0.181747</v>
       </c>
       <c r="I13">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J13">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N13">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O13">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P13">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q13">
-        <v>0.008045030954999999</v>
+        <v>0.003414904965333334</v>
       </c>
       <c r="R13">
-        <v>0.072405278595</v>
+        <v>0.03073414468800001</v>
       </c>
       <c r="S13">
-        <v>1.375376114761736E-06</v>
+        <v>5.142132652238672E-07</v>
       </c>
       <c r="T13">
-        <v>1.375376114761736E-06</v>
+        <v>5.142132652238672E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H14">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I14">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J14">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N14">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O14">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P14">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q14">
-        <v>29.52429209791734</v>
+        <v>16.39519358341222</v>
       </c>
       <c r="R14">
-        <v>265.718628881256</v>
+        <v>147.55674225071</v>
       </c>
       <c r="S14">
-        <v>0.005047464252637444</v>
+        <v>0.00246877324906196</v>
       </c>
       <c r="T14">
-        <v>0.005047464252637444</v>
+        <v>0.00246877324906196</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H15">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I15">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J15">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>157.825459</v>
       </c>
       <c r="O15">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P15">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q15">
-        <v>353.8123774673913</v>
+        <v>38.63365570455721</v>
       </c>
       <c r="R15">
-        <v>3184.311397206522</v>
+        <v>347.7029013410149</v>
       </c>
       <c r="S15">
-        <v>0.06048765950033731</v>
+        <v>0.005817420528256459</v>
       </c>
       <c r="T15">
-        <v>0.06048765950033733</v>
+        <v>0.00581742052825646</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H16">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I16">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J16">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N16">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O16">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P16">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q16">
-        <v>0.6824966548706667</v>
+        <v>0.09392706025166665</v>
       </c>
       <c r="R16">
-        <v>6.142469893836</v>
+        <v>0.8453435422649999</v>
       </c>
       <c r="S16">
-        <v>0.000116679426439062</v>
+        <v>1.414345079444222E-05</v>
       </c>
       <c r="T16">
-        <v>0.000116679426439062</v>
+        <v>1.414345079444222E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H17">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I17">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J17">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N17">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O17">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P17">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q17">
-        <v>311.831143834852</v>
+        <v>33.98081117285166</v>
       </c>
       <c r="R17">
-        <v>2806.480294513668</v>
+        <v>305.8273005556649</v>
       </c>
       <c r="S17">
-        <v>0.05331056020396466</v>
+        <v>0.005116799455776983</v>
       </c>
       <c r="T17">
-        <v>0.05331056020396466</v>
+        <v>0.005116799455776984</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H18">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I18">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J18">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N18">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O18">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P18">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q18">
-        <v>1.313961080773334</v>
+        <v>0.1443045153722222</v>
       </c>
       <c r="R18">
-        <v>11.82564972696</v>
+        <v>1.29874063835</v>
       </c>
       <c r="S18">
-        <v>0.0002246343980937683</v>
+        <v>2.172924189380919E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002246343980937683</v>
+        <v>2.17292418938092E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H19">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I19">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J19">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N19">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O19">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P19">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q19">
-        <v>0.89309763387</v>
+        <v>0.04139449842666666</v>
       </c>
       <c r="R19">
-        <v>8.03787870483</v>
+        <v>0.3725504858399999</v>
       </c>
       <c r="S19">
-        <v>0.0001526837075762402</v>
+        <v>6.233145699327764E-06</v>
       </c>
       <c r="T19">
-        <v>0.0001526837075762402</v>
+        <v>6.233145699327765E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H20">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I20">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J20">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N20">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O20">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P20">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q20">
-        <v>9.292093812350668</v>
+        <v>27.67425714298845</v>
       </c>
       <c r="R20">
-        <v>83.628844311156</v>
+        <v>249.0683142868961</v>
       </c>
       <c r="S20">
-        <v>0.001588573612347577</v>
+        <v>0.004167164320120974</v>
       </c>
       <c r="T20">
-        <v>0.001588573612347577</v>
+        <v>0.004167164320120974</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H21">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I21">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J21">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>157.825459</v>
       </c>
       <c r="O21">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P21">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q21">
-        <v>111.3543312907997</v>
+        <v>65.21165589794045</v>
       </c>
       <c r="R21">
-        <v>1002.188981617197</v>
+        <v>586.904903081464</v>
       </c>
       <c r="S21">
-        <v>0.01903710357229213</v>
+        <v>0.009819511479922558</v>
       </c>
       <c r="T21">
-        <v>0.01903710357229213</v>
+        <v>0.009819511479922558</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H22">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I22">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J22">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N22">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O22">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P22">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q22">
-        <v>0.2148001693873333</v>
+        <v>0.1585441248293333</v>
       </c>
       <c r="R22">
-        <v>1.933201524486</v>
+        <v>1.426897123464</v>
       </c>
       <c r="S22">
-        <v>3.672217348505073E-05</v>
+        <v>2.387342925737731E-05</v>
       </c>
       <c r="T22">
-        <v>3.672217348505073E-05</v>
+        <v>2.387342925737732E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H23">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I23">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J23">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N23">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O23">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P23">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q23">
-        <v>98.14170082440199</v>
+        <v>57.35788977058933</v>
       </c>
       <c r="R23">
-        <v>883.2753074196179</v>
+        <v>516.221007935304</v>
       </c>
       <c r="S23">
-        <v>0.01677827617208648</v>
+        <v>0.008636898562243421</v>
       </c>
       <c r="T23">
-        <v>0.01677827617208649</v>
+        <v>0.008636898562243422</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H24">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I24">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J24">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N24">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O24">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P24">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q24">
-        <v>0.4135391151066667</v>
+        <v>0.2435787198844445</v>
       </c>
       <c r="R24">
-        <v>3.72185203596</v>
+        <v>2.19220847896</v>
       </c>
       <c r="S24">
-        <v>7.069852491790863E-05</v>
+        <v>3.667786077865388E-05</v>
       </c>
       <c r="T24">
-        <v>7.069852491790863E-05</v>
+        <v>3.667786077865389E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H25">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I25">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J25">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N25">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O25">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P25">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q25">
-        <v>0.281081997495</v>
+        <v>0.06987181870933334</v>
       </c>
       <c r="R25">
-        <v>2.529737977455</v>
+        <v>0.6288463683840001</v>
       </c>
       <c r="S25">
-        <v>4.805369523207026E-05</v>
+        <v>1.052123453226152E-05</v>
       </c>
       <c r="T25">
-        <v>4.805369523207026E-05</v>
+        <v>1.052123453226152E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.4695343333333333</v>
+        <v>0.326966</v>
       </c>
       <c r="H26">
-        <v>1.408603</v>
+        <v>0.980898</v>
       </c>
       <c r="I26">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J26">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N26">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O26">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P26">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q26">
-        <v>2.061245080555111</v>
+        <v>7.299769457638669</v>
       </c>
       <c r="R26">
-        <v>18.551205724996</v>
+        <v>65.697925118748</v>
       </c>
       <c r="S26">
-        <v>0.0003523898498741862</v>
+        <v>0.00109919260603126</v>
       </c>
       <c r="T26">
-        <v>0.0003523898498741862</v>
+        <v>0.00109919260603126</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.4695343333333333</v>
+        <v>0.326966</v>
       </c>
       <c r="H27">
-        <v>1.408603</v>
+        <v>0.980898</v>
       </c>
       <c r="I27">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J27">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>157.825459</v>
       </c>
       <c r="O27">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P27">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q27">
-        <v>24.70149055819745</v>
+        <v>17.20118634246467</v>
       </c>
       <c r="R27">
-        <v>222.313415023777</v>
+        <v>154.810677082182</v>
       </c>
       <c r="S27">
-        <v>0.004222959526543836</v>
+        <v>0.002590138901279663</v>
       </c>
       <c r="T27">
-        <v>0.004222959526543837</v>
+        <v>0.002590138901279663</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.4695343333333333</v>
+        <v>0.326966</v>
       </c>
       <c r="H28">
-        <v>1.408603</v>
+        <v>0.980898</v>
       </c>
       <c r="I28">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J28">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N28">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O28">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P28">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q28">
-        <v>0.04764865716955555</v>
+        <v>0.041819932298</v>
       </c>
       <c r="R28">
-        <v>0.428837914526</v>
+        <v>0.376379390682</v>
       </c>
       <c r="S28">
-        <v>8.146000349538403E-06</v>
+        <v>6.297207142423822E-06</v>
       </c>
       <c r="T28">
-        <v>8.146000349538403E-06</v>
+        <v>6.297207142423822E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.4695343333333333</v>
+        <v>0.326966</v>
       </c>
       <c r="H29">
-        <v>1.408603</v>
+        <v>0.980898</v>
       </c>
       <c r="I29">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J29">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N29">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O29">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P29">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q29">
-        <v>21.77056130801533</v>
+        <v>15.129561373178</v>
       </c>
       <c r="R29">
-        <v>195.935051772138</v>
+        <v>136.166052358602</v>
       </c>
       <c r="S29">
-        <v>0.003721888728021719</v>
+        <v>0.002278195508830904</v>
       </c>
       <c r="T29">
-        <v>0.003721888728021719</v>
+        <v>0.002278195508830904</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.4695343333333333</v>
+        <v>0.326966</v>
       </c>
       <c r="H30">
-        <v>1.408603</v>
+        <v>0.980898</v>
       </c>
       <c r="I30">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J30">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N30">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O30">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P30">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q30">
-        <v>0.09173448781777779</v>
+        <v>0.06424990888666668</v>
       </c>
       <c r="R30">
-        <v>0.8256103903600002</v>
+        <v>0.57824917998</v>
       </c>
       <c r="S30">
-        <v>1.56829009298042E-05</v>
+        <v>9.674692494912205E-06</v>
       </c>
       <c r="T30">
-        <v>1.56829009298042E-05</v>
+        <v>9.674692494912205E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.4695343333333333</v>
+        <v>0.326966</v>
       </c>
       <c r="H31">
-        <v>1.408603</v>
+        <v>0.980898</v>
       </c>
       <c r="I31">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J31">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N31">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O31">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P31">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q31">
-        <v>0.062351811795</v>
+        <v>0.018430419488</v>
       </c>
       <c r="R31">
-        <v>0.561166306155</v>
+        <v>0.165873775392</v>
       </c>
       <c r="S31">
-        <v>1.065964731952509E-05</v>
+        <v>2.775235703651564E-06</v>
       </c>
       <c r="T31">
-        <v>1.065964731952509E-05</v>
+        <v>2.775235703651564E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.51787666666667</v>
+        <v>1.849607</v>
       </c>
       <c r="H32">
-        <v>31.55363</v>
+        <v>5.548821</v>
       </c>
       <c r="I32">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J32">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N32">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O32">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P32">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q32">
-        <v>46.17324016146222</v>
+        <v>41.29391033696067</v>
       </c>
       <c r="R32">
-        <v>415.55916145316</v>
+        <v>371.645193032646</v>
       </c>
       <c r="S32">
-        <v>0.007893763493820202</v>
+        <v>0.006217999236812577</v>
       </c>
       <c r="T32">
-        <v>0.007893763493820202</v>
+        <v>0.006217999236812578</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.51787666666667</v>
+        <v>1.849607</v>
       </c>
       <c r="H33">
-        <v>31.55363</v>
+        <v>5.548821</v>
       </c>
       <c r="I33">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J33">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>157.825459</v>
       </c>
       <c r="O33">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P33">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q33">
-        <v>553.3295708740189</v>
+        <v>97.30502458153767</v>
       </c>
       <c r="R33">
-        <v>4979.96613786617</v>
+        <v>875.7452212338391</v>
       </c>
       <c r="S33">
-        <v>0.09459705992784298</v>
+        <v>0.01465210157257688</v>
       </c>
       <c r="T33">
-        <v>0.09459705992784299</v>
+        <v>0.01465210157257688</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.51787666666667</v>
+        <v>1.849607</v>
       </c>
       <c r="H34">
-        <v>31.55363</v>
+        <v>5.548821</v>
       </c>
       <c r="I34">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J34">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N34">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O34">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P34">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q34">
-        <v>1.067361136051111</v>
+        <v>0.236570284121</v>
       </c>
       <c r="R34">
-        <v>9.60625022446</v>
+        <v>2.129132557089</v>
       </c>
       <c r="S34">
-        <v>0.0001824757444142923</v>
+        <v>3.562253693373958E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001824757444142923</v>
+        <v>3.562253693373959E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.51787666666667</v>
+        <v>1.849607</v>
       </c>
       <c r="H35">
-        <v>31.55363</v>
+        <v>5.548821</v>
       </c>
       <c r="I35">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J35">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N35">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O35">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P35">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q35">
-        <v>487.6748355678866</v>
+        <v>85.586093424881</v>
       </c>
       <c r="R35">
-        <v>4389.073520110979</v>
+        <v>770.274840823929</v>
       </c>
       <c r="S35">
-        <v>0.08337274578086797</v>
+        <v>0.0128874756412049</v>
       </c>
       <c r="T35">
-        <v>0.08337274578086797</v>
+        <v>0.0128874756412049</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.51787666666667</v>
+        <v>1.849607</v>
       </c>
       <c r="H36">
-        <v>31.55363</v>
+        <v>5.548821</v>
       </c>
       <c r="I36">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J36">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2669,28 +2669,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N36">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O36">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P36">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q36">
-        <v>2.054912623955556</v>
+        <v>0.3634539408566667</v>
       </c>
       <c r="R36">
-        <v>18.4942136156</v>
+        <v>3.27108546771</v>
       </c>
       <c r="S36">
-        <v>0.0003513072549651659</v>
+        <v>5.472856187321336E-05</v>
       </c>
       <c r="T36">
-        <v>0.0003513072549651659</v>
+        <v>5.472856187321336E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.51787666666667</v>
+        <v>1.849607</v>
       </c>
       <c r="H37">
-        <v>31.55363</v>
+        <v>5.548821</v>
       </c>
       <c r="I37">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J37">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2731,28 +2731,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N37">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O37">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P37">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q37">
-        <v>1.39672143195</v>
+        <v>0.104258647376</v>
       </c>
       <c r="R37">
-        <v>12.57049288755</v>
+        <v>0.938327826384</v>
       </c>
       <c r="S37">
-        <v>0.0002387830832752638</v>
+        <v>1.56991717307728E-05</v>
       </c>
       <c r="T37">
-        <v>0.0002387830832752638</v>
+        <v>1.56991717307728E-05</v>
       </c>
     </row>
   </sheetData>
